--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/Adcolony.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/Adcolony.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>class_name</t>
   </si>
@@ -82,32 +82,15 @@
     <t>getUserMetadata()</t>
   </si>
   <si>
-    <t>setUserMetadata(AdColonyUserMetadata metadata)</t>
-  </si>
-  <si>
     <t>getUserID()</t>
   </si>
   <si>
-    <t>setMediationNetwork(java.lang.String name,
-                   java.lang.String version)</t>
-  </si>
-  <si>
-    <t>setPlugin(java.lang.String name,
-         java.lang.String version)</t>
-  </si>
-  <si>
-    <t>setUserID(java.lang.String user_id)</t>
-  </si>
-  <si>
     <t>getRewardName()</t>
   </si>
   <si>
     <t>getZoneID()</t>
   </si>
   <si>
-    <t>clearUserInterests()</t>
-  </si>
-  <si>
     <t>getUserAge()</t>
   </si>
   <si>
@@ -132,36 +115,18 @@
     <t>getUserZipCode()</t>
   </si>
   <si>
-    <t>setUserLocation(android.location.Location location)</t>
-  </si>
-  <si>
     <t>Used to retrieve the currently set user metadata.</t>
   </si>
   <si>
-    <t>Used to send AdColony extra information about this user.</t>
-  </si>
-  <si>
     <t>Used to retrieve the unique user id set in the app options.</t>
   </si>
   <si>
-    <t>Used to send information about the mediation network that has implemented AdColony</t>
-  </si>
-  <si>
-    <t>Used to send information about the plugin AdColony wrapper.</t>
-  </si>
-  <si>
-    <t>Optionally set a unique id for this specific app session to be reported to AdColony.</t>
-  </si>
-  <si>
     <t>Used to retrieve the name of the reward currency.</t>
   </si>
   <si>
     <t>Used to retrieve the zone id that was used to eventually trigger this reward event.</t>
   </si>
   <si>
-    <t>Used to clear the current user's interests tied to this user metadata object.</t>
-  </si>
-  <si>
     <t>Used to retrieve the user age as set in the user metadata.</t>
   </si>
   <si>
@@ -184,9 +149,6 @@
   </si>
   <si>
     <t>Used to retrieve the user's ZIP code as set in the user metadata.</t>
-  </si>
-  <si>
-    <t>Used to set the current user's location.</t>
   </si>
   <si>
     <t>Used to retrieve the name of the reward currency as defined on this zone's page on our
@@ -199,15 +161,9 @@
     <t>AdColonyUserMetadata</t>
   </si>
   <si>
-    <t>AdColonyAdOptions</t>
-  </si>
-  <si>
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>AdColonyAppOptions</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -217,39 +173,18 @@
     <t>android.location.Location</t>
   </si>
   <si>
-    <t>Used to send ad colony extra information about this user.</t>
-  </si>
-  <si>
-    <t>Used to send information about the mediation network that has implemented ad colony</t>
-  </si>
-  <si>
-    <t>Used to send information about the plugin ad colony wrapper.</t>
-  </si>
-  <si>
-    <t>Optionally set a unique id for this specific app session to be reported to ad colony.</t>
-  </si>
-  <si>
     <t>Used to retrieve the name of the reward currency as defined on this zone's page on our dashboard.</t>
   </si>
   <si>
     <t>{'the currently set user metadata'}</t>
   </si>
   <si>
-    <t>{'extra information'}</t>
-  </si>
-  <si>
     <t>{'id'}</t>
   </si>
   <si>
-    <t>{'information'}</t>
-  </si>
-  <si>
     <t>{'the name'}</t>
   </si>
   <si>
-    <t>{'this user metadata object'}</t>
-  </si>
-  <si>
     <t>{'the user metadata', 'the user age'}</t>
   </si>
   <si>
@@ -260,9 +195,6 @@
   </si>
   <si>
     <t>{"the current user's location", 'the user metadata'}</t>
-  </si>
-  <si>
-    <t>{"the current user's location"}</t>
   </si>
 </sst>
 </file>
@@ -620,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,45 +595,45 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -712,204 +644,204 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -920,22 +852,22 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -946,22 +878,22 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -972,256 +904,74 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
